--- a/data/dolaroficial.xlsx
+++ b/data/dolaroficial.xlsx
@@ -517,6 +517,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B10" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="C10" t="n">
+        <v>366.64</v>
+      </c>
+      <c r="D10" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolaroficial.xlsx
+++ b/data/dolaroficial.xlsx
@@ -534,6 +534,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B11" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="C11" t="n">
+        <v>366.64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolaroficial.xlsx
+++ b/data/dolaroficial.xlsx
@@ -551,6 +551,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B12" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="C12" t="n">
+        <v>366.64</v>
+      </c>
+      <c r="D12" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolaroficial.xlsx
+++ b/data/dolaroficial.xlsx
@@ -534,6 +534,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B11" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="C11" t="n">
+        <v>366.64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolaroficial.xlsx
+++ b/data/dolaroficial.xlsx
@@ -551,6 +551,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B12" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="C12" t="n">
+        <v>366.64</v>
+      </c>
+      <c r="D12" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolaroficial.xlsx
+++ b/data/dolaroficial.xlsx
@@ -568,6 +568,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B13" t="n">
+        <v>349.04</v>
+      </c>
+      <c r="C13" t="n">
+        <v>366.65</v>
+      </c>
+      <c r="D13" t="n">
+        <v>357.85</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolaroficial.xlsx
+++ b/data/dolaroficial.xlsx
@@ -551,6 +551,57 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B12" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="C12" t="n">
+        <v>366.64</v>
+      </c>
+      <c r="D12" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B13" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="C13" t="n">
+        <v>366.64</v>
+      </c>
+      <c r="D13" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B14" t="n">
+        <v>349.04</v>
+      </c>
+      <c r="C14" t="n">
+        <v>366.65</v>
+      </c>
+      <c r="D14" t="n">
+        <v>357.85</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolaroficial.xlsx
+++ b/data/dolaroficial.xlsx
@@ -590,13 +590,13 @@
         <v>45184</v>
       </c>
       <c r="B14" t="n">
-        <v>349.04</v>
+        <v>349.03</v>
       </c>
       <c r="C14" t="n">
-        <v>366.65</v>
+        <v>366.64</v>
       </c>
       <c r="D14" t="n">
-        <v>357.85</v>
+        <v>357.84</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>

--- a/data/dolaroficial.xlsx
+++ b/data/dolaroficial.xlsx
@@ -602,6 +602,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B15" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="C15" t="n">
+        <v>366.64</v>
+      </c>
+      <c r="D15" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolaroficial.xlsx
+++ b/data/dolaroficial.xlsx
@@ -602,23 +602,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45187</v>
-      </c>
-      <c r="B15" t="n">
-        <v>349.03</v>
-      </c>
-      <c r="C15" t="n">
-        <v>366.64</v>
-      </c>
-      <c r="D15" t="n">
-        <v>357.84</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
